--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2408153.159526417</v>
+        <v>2514226.757679262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9230594.319293045</v>
+        <v>9245746.234420775</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>107.0120291964077</v>
+        <v>57.52618127245259</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.157854547276151</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>164.9102792253211</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.25786276724509</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>170.8351153795227</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>75.6207785056525</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.76187362104963</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>235.1355763379936</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>35.87403110738252</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>98.50090852733777</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>247.5570097100282</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>56.49518623012991</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>174.8493187430266</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>178.2798710842933</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>70.0455488112438</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>105.3219429113318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32.4418101585733</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.445727774094098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.55695577161193</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>53.68707741621039</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>233.3452377579701</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.03063761899524</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>39.19314274110825</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>103.5531674807553</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>133.5893686009543</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1212.677519381421</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2224.931248730034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>1446.161648192067</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>1446.161648192067</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>1296.045008779732</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1760.718508466956</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>1538.951893036482</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="U4" t="n">
-        <v>1249.849026162126</v>
+        <v>2076.592243063854</v>
       </c>
       <c r="V4" t="n">
-        <v>995.1645379562392</v>
+        <v>2076.592243063854</v>
       </c>
       <c r="W4" t="n">
-        <v>705.7473679192786</v>
+        <v>2076.592243063854</v>
       </c>
       <c r="X4" t="n">
-        <v>477.7578170212613</v>
+        <v>1848.602692165837</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>1627.810113022307</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1116.871813403012</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>705.8859086134044</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>290.1811583376932</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949293</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C7" t="n">
-        <v>240.2224183670224</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D7" t="n">
-        <v>240.2224183670224</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E7" t="n">
-        <v>240.2224183670224</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F7" t="n">
-        <v>240.2224183670224</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>240.2224183670224</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>757.7009114676554</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>757.7009114676554</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>536.9083323241252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1935.366530930992</v>
+        <v>1771.429619686766</v>
       </c>
       <c r="C8" t="n">
-        <v>1566.40401399058</v>
+        <v>1402.467102746355</v>
       </c>
       <c r="D8" t="n">
-        <v>1208.13831538383</v>
+        <v>1402.467102746355</v>
       </c>
       <c r="E8" t="n">
-        <v>822.3500627855854</v>
+        <v>1016.67885014811</v>
       </c>
       <c r="F8" t="n">
-        <v>411.3641579959778</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>400.3321118813784</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>102.7485114901456</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930992</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1737.96822364669</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.201608216216</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1227.09874134186</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>972.4142531359726</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>682.9970830990119</v>
+        <v>851.9332660269188</v>
       </c>
       <c r="X10" t="n">
-        <v>455.0075322009945</v>
+        <v>623.9437151289014</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.2149530574645</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2322.851535155764</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2103.250070178705</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1814.174843522903</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5281,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
         <v>929.7309773356195</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2203.301906354858</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7004413778</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1694.625214721997</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1439.94072651611</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.52355647915</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.52355647915</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>2565.513299557012</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.44064873475</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>3266.400361191265</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>3097.464178263358</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>2947.347538851023</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4852666057155</v>
+        <v>2799.43444526863</v>
       </c>
       <c r="F22" t="n">
-        <v>449.4852666057155</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>282.2891673205955</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>4186.248126100013</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>3896.830956063052</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>3668.841405165035</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>3448.048826021505</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,31 +6223,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>2381.235169913445</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.440648734749</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>3228.416786794628</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>3059.480603866721</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>2909.363964454385</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>2761.450870871992</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>2194.592113392523</v>
+        <v>4471.231687421534</v>
       </c>
       <c r="U28" t="n">
-        <v>1905.516886736721</v>
+        <v>4182.156460765732</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.832398530834</v>
+        <v>3927.471972559845</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>3410.065251624867</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>3410.065251624867</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6555,13 +6557,13 @@
         <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.384895601574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2359.11504251899</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>2854.440648734749</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>2854.440648734749</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1741.758820148922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1487.074331943035</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1197.657161906075</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>969.6676110080573</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.6676110080573</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,40 +6946,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2411.578601136831</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2228.723766791735</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2009.122301814677</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1720.047075158874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1465.362586952987</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.362586952987</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.37303605497</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7624,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578601</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>199.7516311504069</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.9556134883066534</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>124.5310997715147</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.176967258617964</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168744</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>112.9792378643579</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>214.9597225531942</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.81829093850975</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>94.92839560200196</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>52.83923663127402</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.34460909112645</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>74.19629618688154</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>148.5844758430727</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>92.12028678808281</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>808444.9971628366</v>
+        <v>816169.5029142287</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>808444.9971628366</v>
+        <v>816169.5029142287</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448194</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448193</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
@@ -26326,7 +26328,7 @@
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
@@ -26335,25 +26337,25 @@
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309558</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309555</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888285.6058072621</v>
+        <v>-706904.3213479272</v>
       </c>
       <c r="C6" t="n">
-        <v>440459.1399203305</v>
+        <v>407847.4622279924</v>
       </c>
       <c r="D6" t="n">
-        <v>440459.1399203307</v>
+        <v>247831.9994799927</v>
       </c>
       <c r="E6" t="n">
-        <v>190276.3667367486</v>
+        <v>190276.3667367481</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441032</v>
+        <v>515688.8285441036</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441034</v>
+        <v>515688.8285441036</v>
       </c>
       <c r="H6" t="n">
         <v>515688.8285441035</v>
@@ -26543,25 +26545,25 @@
         <v>515688.8285441035</v>
       </c>
       <c r="J6" t="n">
-        <v>298157.626146826</v>
+        <v>348083.650734121</v>
       </c>
       <c r="K6" t="n">
         <v>515688.8285441035</v>
       </c>
       <c r="L6" t="n">
+        <v>467394.858535913</v>
+      </c>
+      <c r="M6" t="n">
+        <v>430633.8006085914</v>
+      </c>
+      <c r="N6" t="n">
         <v>515688.8285441034</v>
       </c>
-      <c r="M6" t="n">
-        <v>430633.8006085916</v>
-      </c>
-      <c r="N6" t="n">
-        <v>515688.8285441033</v>
-      </c>
       <c r="O6" t="n">
-        <v>515688.8285441032</v>
+        <v>515688.8285441035</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441035</v>
+        <v>515688.8285441034</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.2259094596459</v>
+        <v>328.711757383601</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>144.276108099293</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>24.85874610612083</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>319.4759788962355</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>130.1834371828827</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>69.13423640866829</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>219.7611247155414</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>171.7404694037178</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.70289866554343</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>91.26811680410412</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>38.96598862656285</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,25 +32554,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33500,13 +33502,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,10 +33739,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631791</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>316.2323534812614</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502405</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427309</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>20.5475811488489</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2514226.757679262</v>
+        <v>2510131.116174496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>234.1055905923168</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>57.52618127245259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>2.157854547276151</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>249.3387099494851</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>170.8351153795227</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>51.92096917925206</v>
       </c>
       <c r="W7" t="n">
-        <v>66.76187362104963</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>235.1355763379936</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>239.344736135529</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>4.04318711639895</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>247.5570097100282</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S13" t="n">
-        <v>56.49518623012991</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>178.2798710842933</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.0455488112438</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>32.4418101585733</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.67992556049168</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>53.68707741621039</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>212.3267021497095</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>39.19314274110825</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>103.5531674807553</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>66.25628701154712</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.0776793172992</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C2" t="n">
-        <v>826.0776793172992</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1212.677519381421</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.931248730034</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1446.161648192067</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>1446.161648192067</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>1296.045008779732</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>1293.865357721877</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1293.865357721877</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2076.592243063854</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2076.592243063854</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>2076.592243063854</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1848.602692165837</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1627.810113022307</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1502.660066001256</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>1502.660066001256</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="D5" t="n">
-        <v>1502.660066001256</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="E5" t="n">
-        <v>1116.871813403012</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>705.8859086134044</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>290.1811583376932</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.660066001256</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1502.660066001256</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.9083323241252</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962184</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485136</v>
+        <v>1584.000696661112</v>
       </c>
       <c r="W7" t="n">
-        <v>757.7009114676554</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X7" t="n">
-        <v>757.7009114676554</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y7" t="n">
-        <v>536.9083323241252</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.429619686766</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C8" t="n">
-        <v>1402.467102746355</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="D8" t="n">
-        <v>1402.467102746355</v>
+        <v>1105.048633552893</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.67885014811</v>
+        <v>719.2603809546486</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>308.274476165041</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686766</v>
+        <v>2218.876689164177</v>
       </c>
     </row>
     <row r="9">
@@ -4877,13 +4877,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.1511359853714</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574644</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574644</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>851.9332660269188</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>623.9437151289014</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.1511359853714</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6425904082686</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S13" t="n">
-        <v>2322.851535155764</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.250070178705</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.174843522903</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.490355317016</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.073185280056</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.083634382038</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.2910552385083</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,19 +5737,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3266.400361191265</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3097.464178263358</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2947.347538851023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2799.43444526863</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3668.841405165035</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3448.048826021505</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3228.416786794628</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3059.480603866721</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2909.363964454385</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2761.450870871992</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765732</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559845</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624867</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3410.065251624867</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>666.6476097656489</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>819.2033709951103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.7516311504069</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883066534</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>54.95314511566494</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-4.7828447756751e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.44677382459292</v>
       </c>
       <c r="S13" t="n">
-        <v>124.5310997715147</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>108.2431272522977</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>75.37549921168744</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>112.9792378643579</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>75.84421273177716</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>94.92839560200196</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>74.19629618688154</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>109.4223302771041</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>148.5844758430727</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744346</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744302</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744346</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26459,7 +26459,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-706904.3213479272</v>
       </c>
       <c r="C6" t="n">
-        <v>407847.4622279924</v>
+        <v>407847.4622279921</v>
       </c>
       <c r="D6" t="n">
-        <v>247831.9994799927</v>
+        <v>247831.9994799926</v>
       </c>
       <c r="E6" t="n">
-        <v>190276.3667367481</v>
+        <v>189928.9874823916</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441036</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441036</v>
+        <v>515341.4492897466</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897463</v>
       </c>
       <c r="I6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="J6" t="n">
-        <v>348083.650734121</v>
+        <v>347736.2714797638</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="L6" t="n">
-        <v>467394.858535913</v>
+        <v>467047.4792815557</v>
       </c>
       <c r="M6" t="n">
-        <v>430633.8006085914</v>
+        <v>430286.4213542347</v>
       </c>
       <c r="N6" t="n">
-        <v>515688.8285441034</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441034</v>
+        <v>515341.4492897464</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>131.1673011786908</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>328.711757383601</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>144.276108099293</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>132.5916601227766</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>130.1834371828827</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>200.2166741445759</v>
       </c>
       <c r="W7" t="n">
-        <v>219.7611247155414</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>171.7404694037178</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>171.5769895179245</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>161.9826211426293</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.96598862656285</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>454.5879800486398</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>154.5219885631791</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>424.0909547148531</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>316.2323534812614</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844296</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>304.6326742391972</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>311.9917356041954</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>20.5475811488489</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>281.4947102704086</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2510131.116174496</v>
+        <v>2511891.64647728</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>234.1055905923168</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>280.3804015942628</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>116.7550504648072</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>249.3387099494851</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>300.2457163566731</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>51.92096917925206</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>239.344736135529</v>
+        <v>220.2403806056894</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>4.04318711639895</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>38.95525409458221</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>28.7518808581241</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1859.931962592038</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1501.666263985288</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1115.878011387044</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>704.8921065974362</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1518.511725665601</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.227517577121</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="C5" t="n">
-        <v>1500.227517577121</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="D5" t="n">
-        <v>1500.227517577121</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577121</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.227517577121</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.000696661112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1832.276849100055</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.314332159643</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>1105.048633552893</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E8" t="n">
-        <v>719.2603809546486</v>
+        <v>741.9599508971601</v>
       </c>
       <c r="F8" t="n">
-        <v>308.274476165041</v>
+        <v>330.9740461075525</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4840,16 +4840,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2609.016021139988</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2218.876689164177</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>515.5158243151246</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3991849027889</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4860913203958</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>70.5961438224854</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.7594328861248</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
         <v>240.7066105458822</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2023.366912656562</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598947</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400753</v>
       </c>
       <c r="D31" t="n">
         <v>484.8112968429803</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.502065570315</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6849,10 +6849,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,25 +6952,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566494</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-4.7828447756751e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>106.465793928349</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600883</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="12">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="C2" t="n">
         <v>636307.37164482</v>
@@ -26322,40 +26322,40 @@
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="O2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744346</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744302</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744333</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744313</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26459,7 +26459,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706904.3213479272</v>
+        <v>-706904.321347927</v>
       </c>
       <c r="C6" t="n">
         <v>407847.4622279921</v>
       </c>
       <c r="D6" t="n">
-        <v>247831.9994799926</v>
+        <v>247831.9994799925</v>
       </c>
       <c r="E6" t="n">
-        <v>189928.9874823916</v>
+        <v>190241.6288113127</v>
       </c>
       <c r="F6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186674</v>
       </c>
       <c r="G6" t="n">
-        <v>515341.4492897466</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="H6" t="n">
-        <v>515341.4492897463</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="I6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186676</v>
       </c>
       <c r="J6" t="n">
-        <v>347736.2714797638</v>
+        <v>348048.9128086849</v>
       </c>
       <c r="K6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="L6" t="n">
-        <v>467047.4792815557</v>
+        <v>467360.1206104767</v>
       </c>
       <c r="M6" t="n">
-        <v>430286.4213542347</v>
+        <v>430599.062683156</v>
       </c>
       <c r="N6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="O6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186679</v>
       </c>
       <c r="P6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186678</v>
       </c>
     </row>
   </sheetData>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>131.1673011786908</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>131.1673011786912</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>77.90740989693026</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>132.5916601227766</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>106.6303293850384</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>96.27076102970096</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>200.2166741445759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>171.5769895179245</v>
+        <v>190.681345047764</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>161.9826211426293</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.003997547551988e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>3.758651504979532e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,13 +34453,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391972</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -37007,7 +37007,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066287</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
